--- a/data/trans_orig/P1498-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D1CB81-F948-4389-9124-A0AA4A27ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B8173D-7356-4F65-BC11-69B1A26F628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F826370-A50F-440D-BFC8-C9D08409561D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{829FC1DC-DB3B-4339-AFB4-F8FCA579B748}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992304AB-FA7E-472D-BECE-4B0063C4F291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A268A8-4210-4E57-B7D4-5099C6522E54}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAC7852-9FB7-4432-8F6D-2C9AE5DF1E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB0AAA-D256-4E12-AB66-5A3E3F0C23E1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P1498-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B8173D-7356-4F65-BC11-69B1A26F628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9753467-9203-4E78-AD8D-C501DF6311AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{829FC1DC-DB3B-4339-AFB4-F8FCA579B748}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99CBF348-12DC-4B72-B72F-65F145A60105}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -87,7 +87,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -96,7 +96,7 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -117,7 +117,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A268A8-4210-4E57-B7D4-5099C6522E54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F189847-EEC5-4ABD-96E9-067CBF4F8676}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB0AAA-D256-4E12-AB66-5A3E3F0C23E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDE262B-4283-406A-948C-7D4911A1593C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
